--- a/Data/Excel/EntityDefine.xlsx
+++ b/Data/Excel/EntityDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="11100" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1182,7 +1182,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1399,7 +1399,7 @@
         <v>110</v>
       </c>
       <c r="G5" s="5">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="H5" s="5">
         <v>8</v>

--- a/Data/Excel/EntityDefine.xlsx
+++ b/Data/Excel/EntityDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11100" windowHeight="7635"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -132,10 +132,10 @@
     <t>芙兰朵露</t>
   </si>
   <si>
-    <t>灵梦防御塔</t>
-  </si>
-  <si>
     <t>防御塔</t>
+  </si>
+  <si>
+    <t>小防御塔</t>
   </si>
 </sst>
 </file>
@@ -1181,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1396,10 +1396,10 @@
         <v>0.9</v>
       </c>
       <c r="F5" s="5">
-        <v>110</v>
+        <v>300</v>
       </c>
       <c r="G5" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H5" s="5">
         <v>8</v>
@@ -1526,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -1560,20 +1560,48 @@
       </c>
     </row>
     <row r="9" ht="14.25" spans="1:15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="5">
+        <v>106</v>
+      </c>
+      <c r="B9" s="5">
+        <v>106</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>800</v>
+      </c>
+      <c r="G9" s="7">
+        <v>70</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>15</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="L9" s="7">
+        <v>104</v>
+      </c>
+      <c r="M9" s="7">
+        <v>5</v>
+      </c>
+      <c r="N9" s="7">
+        <v>500</v>
+      </c>
       <c r="O9" s="7"/>
     </row>
     <row r="10" ht="14.25" spans="1:15">
